--- a/실무_엑셀_예제_파일/Chapter01/01-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C07EC8-3BF0-442D-A875-6FEE22350C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA80E5-9FA3-49EA-B6A3-7F043838C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="792" windowWidth="7728" windowHeight="8616" xr2:uid="{606DDA3B-C3DC-492C-873D-718ED9A903D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{606DDA3B-C3DC-492C-873D-718ED9A903D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,9 +141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,12 +460,12 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -476,59 +473,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
